--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\Nominas2021\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\NetBeansProjects\SistemasInformacion2\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E42AEA-B94E-485D-BF70-983C32EA416A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4907745-2701-4BA9-AF00-69FD9A715972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="2340" windowWidth="19785" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="482">
   <si>
     <t>Nombre</t>
   </si>
@@ -191,12 +191,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>Alencar</t>
   </si>
   <si>
@@ -239,39 +233,6 @@
     <t>01234567L</t>
   </si>
   <si>
-    <t>09548827W</t>
-  </si>
-  <si>
-    <t>24571671B</t>
-  </si>
-  <si>
-    <t>X9924125Q</t>
-  </si>
-  <si>
-    <t>Y1337652C</t>
-  </si>
-  <si>
-    <t>Y0806930T</t>
-  </si>
-  <si>
-    <t>09548295T</t>
-  </si>
-  <si>
-    <t>09611087B</t>
-  </si>
-  <si>
-    <t>24304263R</t>
-  </si>
-  <si>
-    <t>09741995Z</t>
-  </si>
-  <si>
-    <t>X1673150A</t>
-  </si>
-  <si>
-    <t>X8996448Q</t>
-  </si>
-  <si>
     <t>Jefe de servicio</t>
   </si>
   <si>
@@ -290,51 +251,21 @@
     <t>ProrrataExtra</t>
   </si>
   <si>
-    <t>20960583861234500000</t>
-  </si>
-  <si>
-    <t>20960043013075700000</t>
-  </si>
-  <si>
     <t>20960031442124800000</t>
   </si>
   <si>
-    <t>20960043092158800000</t>
-  </si>
-  <si>
-    <t>20960043013000100000</t>
-  </si>
-  <si>
-    <t>20960043013096200000</t>
-  </si>
-  <si>
     <t>20960056163231500000</t>
   </si>
   <si>
     <t>01826530120201560000</t>
   </si>
   <si>
-    <t>20960043083071400000</t>
-  </si>
-  <si>
-    <t>20960043073468900000</t>
-  </si>
-  <si>
-    <t>20960043022159000000</t>
-  </si>
-  <si>
     <t>20960043043554600000</t>
   </si>
   <si>
-    <t>00750184300702510000</t>
-  </si>
-  <si>
     <t>20910936583000000000</t>
   </si>
   <si>
-    <t>01821135900205540000</t>
-  </si>
-  <si>
     <t>P2272621I</t>
   </si>
   <si>
@@ -365,9 +296,6 @@
     <t>GB</t>
   </si>
   <si>
-    <t>01234567J</t>
-  </si>
-  <si>
     <t>Armando</t>
   </si>
   <si>
@@ -539,18 +467,9 @@
     <t>09771193B</t>
   </si>
   <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Mielgo</t>
-  </si>
-  <si>
     <t>Gutierrez</t>
   </si>
   <si>
-    <t>09741138Z</t>
-  </si>
-  <si>
     <t>Casimiro</t>
   </si>
   <si>
@@ -566,9 +485,6 @@
     <t>Presa</t>
   </si>
   <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
     <t>71425232C</t>
   </si>
   <si>
@@ -689,18 +605,12 @@
     <t>71404625K</t>
   </si>
   <si>
-    <t>Elaio</t>
-  </si>
-  <si>
     <t>Cabero</t>
   </si>
   <si>
     <t>Guerra</t>
   </si>
   <si>
-    <t>09779552S</t>
-  </si>
-  <si>
     <t>Dorina</t>
   </si>
   <si>
@@ -713,18 +623,12 @@
     <t>Santiago</t>
   </si>
   <si>
-    <t>09548416N</t>
-  </si>
-  <si>
     <t>Diego</t>
   </si>
   <si>
     <t>Fresco</t>
   </si>
   <si>
-    <t>09548245W</t>
-  </si>
-  <si>
     <t>Elisa</t>
   </si>
   <si>
@@ -752,15 +656,6 @@
     <t>09570211A</t>
   </si>
   <si>
-    <t>Eugenio</t>
-  </si>
-  <si>
-    <t>Gallego</t>
-  </si>
-  <si>
-    <t>09640671Z</t>
-  </si>
-  <si>
     <t>Eulalia</t>
   </si>
   <si>
@@ -788,9 +683,6 @@
     <t>Dominguez</t>
   </si>
   <si>
-    <t>09548443W</t>
-  </si>
-  <si>
     <t>Generoso</t>
   </si>
   <si>
@@ -905,9 +797,6 @@
     <t>Tomás</t>
   </si>
   <si>
-    <t>09749147P</t>
-  </si>
-  <si>
     <t>Sonia</t>
   </si>
   <si>
@@ -917,9 +806,6 @@
     <t>Gomez</t>
   </si>
   <si>
-    <t>02518676S</t>
-  </si>
-  <si>
     <t>Soledad</t>
   </si>
   <si>
@@ -1016,9 +902,6 @@
     <t>Márquez</t>
   </si>
   <si>
-    <t>09779285F</t>
-  </si>
-  <si>
     <t>Mario</t>
   </si>
   <si>
@@ -1046,9 +929,6 @@
     <t>Morán</t>
   </si>
   <si>
-    <t>09548486R</t>
-  </si>
-  <si>
     <t>Miguel Ángel</t>
   </si>
   <si>
@@ -1079,9 +959,6 @@
     <t>Aparicio</t>
   </si>
   <si>
-    <t>09706118A</t>
-  </si>
-  <si>
     <t>María</t>
   </si>
   <si>
@@ -1190,9 +1067,6 @@
     <t>Lombás</t>
   </si>
   <si>
-    <t>24304263F</t>
-  </si>
-  <si>
     <t>Almarza</t>
   </si>
   <si>
@@ -1214,258 +1088,24 @@
     <t>Latifa Epfouad Erre</t>
   </si>
   <si>
-    <t>12548521458742146695</t>
-  </si>
-  <si>
-    <t>31245164326597845124</t>
-  </si>
-  <si>
-    <t>12548523695214585214</t>
-  </si>
-  <si>
-    <t>32658012547712548745</t>
-  </si>
-  <si>
-    <t>96536214585214585214</t>
-  </si>
-  <si>
-    <t>31645124013461205164</t>
-  </si>
-  <si>
-    <t>22631245246916432102</t>
-  </si>
-  <si>
-    <t>51651681001210656510</t>
-  </si>
-  <si>
-    <t>55065688611051056105</t>
-  </si>
-  <si>
-    <t>95485212145484010000</t>
-  </si>
-  <si>
-    <t>32562000125478520015</t>
-  </si>
-  <si>
-    <t>36154231642500312566</t>
-  </si>
-  <si>
-    <t>36245978463245679001</t>
-  </si>
-  <si>
-    <t>26221011898048788896</t>
-  </si>
-  <si>
-    <t>62581542003690044508</t>
-  </si>
-  <si>
-    <t>20125003625201112544</t>
-  </si>
-  <si>
-    <t>20008521458775113366</t>
-  </si>
-  <si>
-    <t>63516541848944000984</t>
-  </si>
-  <si>
-    <t>65165654648886005001</t>
-  </si>
-  <si>
-    <t>21654587165156484454</t>
-  </si>
-  <si>
-    <t>25516848741156151054</t>
-  </si>
-  <si>
-    <t>65614874115615445616</t>
-  </si>
-  <si>
-    <t>32154697855423121000</t>
-  </si>
-  <si>
-    <t>21651651472511133551</t>
-  </si>
-  <si>
-    <t>12121455156115515151</t>
-  </si>
-  <si>
-    <t>12669681515112121210</t>
-  </si>
-  <si>
-    <t>32541112541220000588</t>
-  </si>
-  <si>
-    <t>36585214520025478551</t>
-  </si>
-  <si>
-    <t>36521452326500658485</t>
-  </si>
-  <si>
-    <t>22515651565640081000</t>
-  </si>
-  <si>
     <t>51556584121251000254</t>
   </si>
   <si>
-    <t>20036525587451152165</t>
-  </si>
-  <si>
-    <t>52198484632100515144</t>
-  </si>
-  <si>
-    <t>31624561312546920007</t>
-  </si>
-  <si>
-    <t>31215643125060225021</t>
-  </si>
-  <si>
     <t>26551681877651415636</t>
   </si>
   <si>
     <t>62541122001110105611</t>
   </si>
   <si>
-    <t>32628484114115151115</t>
-  </si>
-  <si>
-    <t>36250012544785523365</t>
-  </si>
-  <si>
-    <t>32569523636220165156</t>
-  </si>
-  <si>
-    <t>32574512025411002255</t>
-  </si>
-  <si>
-    <t>66552211448855332200</t>
-  </si>
-  <si>
-    <t>25635478521002541225</t>
-  </si>
-  <si>
-    <t>36520125478451012515</t>
-  </si>
-  <si>
-    <t>33218885651445121022</t>
-  </si>
-  <si>
-    <t>21416325881510005514</t>
-  </si>
-  <si>
-    <t>32584216551684051000</t>
-  </si>
-  <si>
-    <t>21856333256985542360</t>
-  </si>
-  <si>
-    <t>85550564156165145610</t>
-  </si>
-  <si>
     <t>65645150005168448896</t>
   </si>
   <si>
-    <t>23215465445456411515</t>
-  </si>
-  <si>
-    <t>23185484005641685100</t>
-  </si>
-  <si>
-    <t>99558741226555551120</t>
-  </si>
-  <si>
-    <t>51651487560005118185</t>
-  </si>
-  <si>
-    <t>21651484840980008984</t>
-  </si>
-  <si>
-    <t>25165151488666365100</t>
-  </si>
-  <si>
-    <t>32566221452587754554</t>
-  </si>
-  <si>
-    <t>23221158422545471411</t>
-  </si>
-  <si>
     <t>20012541100023365233</t>
   </si>
   <si>
-    <t>23652365232254222000</t>
-  </si>
-  <si>
-    <t>65168874651561561500</t>
-  </si>
-  <si>
-    <t>56187775465550000651</t>
-  </si>
-  <si>
-    <t>36952365200014425254</t>
-  </si>
-  <si>
-    <t>33620012547852100256</t>
-  </si>
-  <si>
     <t>23658965214585223202</t>
   </si>
   <si>
-    <t>15953684521254695203</t>
-  </si>
-  <si>
-    <t>96431245768150005156</t>
-  </si>
-  <si>
-    <t>64578946120051516490</t>
-  </si>
-  <si>
-    <t>34698752134600549403</t>
-  </si>
-  <si>
-    <t>25030000694574745458</t>
-  </si>
-  <si>
-    <t>25894363125485700145</t>
-  </si>
-  <si>
-    <t>66649444572310000255</t>
-  </si>
-  <si>
-    <t>25187786651225455548</t>
-  </si>
-  <si>
-    <t>23164897632213030615</t>
-  </si>
-  <si>
-    <t>85461325461978750005</t>
-  </si>
-  <si>
-    <t>24587946012003165464</t>
-  </si>
-  <si>
-    <t>21508149675421346497</t>
-  </si>
-  <si>
-    <t>21346154203164978451</t>
-  </si>
-  <si>
-    <t>24561937321546497521</t>
-  </si>
-  <si>
-    <t>44875664957231645789</t>
-  </si>
-  <si>
-    <t>32145464978452163421</t>
-  </si>
-  <si>
-    <t>21564975463245467995</t>
-  </si>
-  <si>
-    <t>21584976342154655487</t>
-  </si>
-  <si>
-    <t>23455254353263234457</t>
-  </si>
-  <si>
     <t>MC</t>
   </si>
   <si>
@@ -1527,6 +1167,312 @@
   </si>
   <si>
     <t>P2418823C</t>
+  </si>
+  <si>
+    <t>99558741836555551120</t>
+  </si>
+  <si>
+    <t>09548150L</t>
+  </si>
+  <si>
+    <t>32541112811220000588</t>
+  </si>
+  <si>
+    <t>09548416X</t>
+  </si>
+  <si>
+    <t>12548521518742146695</t>
+  </si>
+  <si>
+    <t>26221011628048788896</t>
+  </si>
+  <si>
+    <t>65165654918886005001</t>
+  </si>
+  <si>
+    <t>85550564726165145610</t>
+  </si>
+  <si>
+    <t>09749147E</t>
+  </si>
+  <si>
+    <t>31215643855060225021</t>
+  </si>
+  <si>
+    <t>09548443Q</t>
+  </si>
+  <si>
+    <t>20960043013468900000</t>
+  </si>
+  <si>
+    <t>32574512085411002255</t>
+  </si>
+  <si>
+    <t>23221158252545471411</t>
+  </si>
+  <si>
+    <t>31245164156597845124</t>
+  </si>
+  <si>
+    <t>36245978133245679001</t>
+  </si>
+  <si>
+    <t>21856333126985542360</t>
+  </si>
+  <si>
+    <t>95485212315484010000</t>
+  </si>
+  <si>
+    <t>55065688761051056105</t>
+  </si>
+  <si>
+    <t>32584216971684051000</t>
+  </si>
+  <si>
+    <t>23652365142254222000</t>
+  </si>
+  <si>
+    <t>32658012367712548745</t>
+  </si>
+  <si>
+    <t>63516541828944000984</t>
+  </si>
+  <si>
+    <t>32628484504115151115</t>
+  </si>
+  <si>
+    <t>21416325811510005514</t>
+  </si>
+  <si>
+    <t>20960583831234500000</t>
+  </si>
+  <si>
+    <t>65168874641561561500</t>
+  </si>
+  <si>
+    <t>09548295P</t>
+  </si>
+  <si>
+    <t>36952365020014425254</t>
+  </si>
+  <si>
+    <t>20960043033000100000</t>
+  </si>
+  <si>
+    <t>24304263W</t>
+  </si>
+  <si>
+    <t>25165151118666365100</t>
+  </si>
+  <si>
+    <t>62581542713690044508</t>
+  </si>
+  <si>
+    <t>33218885441445121022</t>
+  </si>
+  <si>
+    <t>33620012937852100256</t>
+  </si>
+  <si>
+    <t>09548486J</t>
+  </si>
+  <si>
+    <t>09548827D</t>
+  </si>
+  <si>
+    <t>44875664127231645789</t>
+  </si>
+  <si>
+    <t>36154231712500312566</t>
+  </si>
+  <si>
+    <t>31624561042546920007</t>
+  </si>
+  <si>
+    <t>12548523465214585214</t>
+  </si>
+  <si>
+    <t>36585214290025478551</t>
+  </si>
+  <si>
+    <t>09785530J</t>
+  </si>
+  <si>
+    <t>21651651812511133551</t>
+  </si>
+  <si>
+    <t>09611087P</t>
+  </si>
+  <si>
+    <t>51651487910005118185</t>
+  </si>
+  <si>
+    <t>20008521528775113366</t>
+  </si>
+  <si>
+    <t>36521452736500658485</t>
+  </si>
+  <si>
+    <t>32154697195423121000</t>
+  </si>
+  <si>
+    <t>25635478321002541225</t>
+  </si>
+  <si>
+    <t>20960043043075700000</t>
+  </si>
+  <si>
+    <t>09548295Y</t>
+  </si>
+  <si>
+    <t>22631245526916432102</t>
+  </si>
+  <si>
+    <t>01821135910205540000</t>
+  </si>
+  <si>
+    <t>X8996448K</t>
+  </si>
+  <si>
+    <t>09548827E</t>
+  </si>
+  <si>
+    <t>66552211148855332200</t>
+  </si>
+  <si>
+    <t>51651681961210656510</t>
+  </si>
+  <si>
+    <t>21654587985156484454</t>
+  </si>
+  <si>
+    <t>20960043042158800000</t>
+  </si>
+  <si>
+    <t>20960043073071400000</t>
+  </si>
+  <si>
+    <t>24571671N</t>
+  </si>
+  <si>
+    <t>24587946032003165464</t>
+  </si>
+  <si>
+    <t>85461325251978750005</t>
+  </si>
+  <si>
+    <t>96536214865214585214</t>
+  </si>
+  <si>
+    <t>23164897642213030615</t>
+  </si>
+  <si>
+    <t>25187786311225455548</t>
+  </si>
+  <si>
+    <t>21346154503164978451</t>
+  </si>
+  <si>
+    <t>21508149175421346497</t>
+  </si>
+  <si>
+    <t>22515651915640081000</t>
+  </si>
+  <si>
+    <t>36250012804785523365</t>
+  </si>
+  <si>
+    <t>52198484752100515144</t>
+  </si>
+  <si>
+    <t>23185484465641685100</t>
+  </si>
+  <si>
+    <t>66649444162310000255</t>
+  </si>
+  <si>
+    <t>34698752714600549403</t>
+  </si>
+  <si>
+    <t>64578946740051516490</t>
+  </si>
+  <si>
+    <t>25516848021156151054</t>
+  </si>
+  <si>
+    <t>56187775315550000651</t>
+  </si>
+  <si>
+    <t>12669681115112121210</t>
+  </si>
+  <si>
+    <t>20960043032159000000</t>
+  </si>
+  <si>
+    <t>09741995T</t>
+  </si>
+  <si>
+    <t>23455254943263234457</t>
+  </si>
+  <si>
+    <t>Y0806930N</t>
+  </si>
+  <si>
+    <t>00750184310702510000</t>
+  </si>
+  <si>
+    <t>20960043023096200000</t>
+  </si>
+  <si>
+    <t>15953684811254695203</t>
+  </si>
+  <si>
+    <t>25030000114574745458</t>
+  </si>
+  <si>
+    <t>96431245118150005156</t>
+  </si>
+  <si>
+    <t>09458455Y</t>
+  </si>
+  <si>
+    <t>25894363475485700145</t>
+  </si>
+  <si>
+    <t>21584976902154655487</t>
+  </si>
+  <si>
+    <t>23215465315456411515</t>
+  </si>
+  <si>
+    <t>32566221522587754554</t>
+  </si>
+  <si>
+    <t>21564975243245467995</t>
+  </si>
+  <si>
+    <t>Y1337652D</t>
+  </si>
+  <si>
+    <t>21651484690980008984</t>
+  </si>
+  <si>
+    <t>20125003305201112544</t>
+  </si>
+  <si>
+    <t>36520125638451012515</t>
+  </si>
+  <si>
+    <t>24561937521546497521</t>
+  </si>
+  <si>
+    <t>32569523016220165156</t>
+  </si>
+  <si>
+    <t>65614874165615445616</t>
+  </si>
+  <si>
+    <t>31645124473461205164</t>
   </si>
 </sst>
 </file>
@@ -1562,15 +1508,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,21 +1888,21 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1966,13 +1913,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +1953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +1970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +1987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +2004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2021,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2091,9 +2038,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>31000</v>
@@ -2108,15 +2055,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="C10">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2125,7 +2072,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2142,7 +2089,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2159,15 +2106,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
       <c r="B13">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="C13">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -2176,7 +2123,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2193,7 +2140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2210,7 +2157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>15</v>
       </c>
@@ -2218,7 +2165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>16</v>
       </c>
@@ -2226,7 +2173,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>17</v>
       </c>
@@ -2234,7 +2181,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>18</v>
       </c>
@@ -2255,12 +2202,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2268,13 +2215,13 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G1">
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -2282,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13000</v>
       </c>
@@ -2296,13 +2243,13 @@
         <v>3.6</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14000</v>
       </c>
@@ -2310,13 +2257,13 @@
         <v>6.3</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15000</v>
       </c>
@@ -2324,13 +2271,13 @@
         <v>8.5</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -2338,13 +2285,13 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G6">
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17000</v>
       </c>
@@ -2352,13 +2299,13 @@
         <v>10.35</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18000</v>
       </c>
@@ -2366,13 +2313,13 @@
         <v>11.15</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19000</v>
       </c>
@@ -2380,7 +2327,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -2388,7 +2335,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21000</v>
       </c>
@@ -2396,7 +2343,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22000</v>
       </c>
@@ -2404,7 +2351,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23000</v>
       </c>
@@ -2412,7 +2359,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24000</v>
       </c>
@@ -2420,7 +2367,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25000</v>
       </c>
@@ -2428,7 +2375,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26000</v>
       </c>
@@ -2436,7 +2383,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>27000</v>
       </c>
@@ -2444,7 +2391,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28000</v>
       </c>
@@ -2452,7 +2399,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29000</v>
       </c>
@@ -2460,7 +2407,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -2468,7 +2415,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31000</v>
       </c>
@@ -2476,7 +2423,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32000</v>
       </c>
@@ -2484,7 +2431,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>33000</v>
       </c>
@@ -2492,7 +2439,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>34000</v>
       </c>
@@ -2500,7 +2447,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35000</v>
       </c>
@@ -2508,7 +2455,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>36000</v>
       </c>
@@ -2516,7 +2463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>37000</v>
       </c>
@@ -2524,7 +2471,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>38000</v>
       </c>
@@ -2532,7 +2479,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>39000</v>
       </c>
@@ -2540,7 +2487,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -2548,7 +2495,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -2556,7 +2503,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42000</v>
       </c>
@@ -2564,7 +2511,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43000</v>
       </c>
@@ -2572,7 +2519,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44000</v>
       </c>
@@ -2580,7 +2527,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>45000</v>
       </c>
@@ -2588,7 +2535,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>46000</v>
       </c>
@@ -2596,7 +2543,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>47000</v>
       </c>
@@ -2604,7 +2551,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>48000</v>
       </c>
@@ -2612,7 +2559,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>49000</v>
       </c>
@@ -2620,7 +2567,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50000</v>
       </c>
@@ -2628,7 +2575,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>51000</v>
       </c>
@@ -2636,7 +2583,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>52000</v>
       </c>
@@ -2644,7 +2591,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>53000</v>
       </c>
@@ -2652,7 +2599,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>54000</v>
       </c>
@@ -2660,7 +2607,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>55000</v>
       </c>
@@ -2668,7 +2615,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>56000</v>
       </c>
@@ -2676,7 +2623,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57000</v>
       </c>
@@ -2684,7 +2631,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>58000</v>
       </c>
@@ -2692,7 +2639,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59000</v>
       </c>
@@ -2700,7 +2647,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>60000</v>
       </c>
@@ -2715,25 +2662,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD104"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2756,3625 +2703,3552 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
-        <v>38930</v>
+        <v>43101</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>128</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="K2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>38930</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>498</v>
-      </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>39448</v>
+        <v>43617</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>154</v>
+        <v>231</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>400</v>
+      <c r="J4" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>40513</v>
+        <v>43617</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" t="s">
-        <v>214</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>416</v>
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>40664</v>
+        <v>43862</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" t="s">
-        <v>269</v>
+        <v>244</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="K6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="H7" s="4"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="K6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1">
-        <v>37742</v>
-      </c>
-      <c r="E7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>389</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="K7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>38200</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H8" t="s">
-        <v>281</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>438</v>
+      <c r="J8" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="K8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="1">
-        <v>40391</v>
+        <v>41426</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" t="s">
-        <v>192</v>
+        <v>272</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>410</v>
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>37226</v>
+        <v>41426</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
-      </c>
-      <c r="H10" t="s">
-        <v>311</v>
+        <v>54</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>449</v>
+      <c r="J10" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1">
-        <v>41426</v>
+        <v>41671</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>98</v>
+      <c r="J11" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>41426</v>
+        <v>41671</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
+        <v>278</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="I12" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>476</v>
+      <c r="J12" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>38139</v>
+        <v>41671</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>316</v>
-      </c>
-      <c r="H13" t="s">
-        <v>318</v>
+        <v>259</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>451</v>
+      <c r="J13" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="K13" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>497</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
-        <v>40087</v>
+        <v>39356</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>297</v>
-      </c>
-      <c r="H14" t="s">
-        <v>299</v>
+        <v>57</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>445</v>
+        <v>20</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="K14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="1">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>99</v>
+      <c r="J15" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>39387</v>
+        <v>39022</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>393</v>
+        <v>320</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>477</v>
+      <c r="J16" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43831</v>
+      </c>
+      <c r="E17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
-        <v>39022</v>
+        <v>36831</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>361</v>
-      </c>
-      <c r="H18" t="s">
-        <v>363</v>
+        <v>318</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>465</v>
+      <c r="J18" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="K18" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>40118</v>
+        <v>41548</v>
       </c>
       <c r="E19" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="F19" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
-      </c>
-      <c r="H19" t="s">
-        <v>350</v>
+        <v>304</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="I19" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" t="s">
+        <v>362</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41944</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="K19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>494</v>
-      </c>
-      <c r="B20" t="s">
-        <v>495</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1">
-        <v>36831</v>
-      </c>
-      <c r="E20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>359</v>
-      </c>
-      <c r="H20" t="s">
-        <v>360</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="K20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>494</v>
-      </c>
-      <c r="B21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>41548</v>
-      </c>
-      <c r="E21" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" t="s">
-        <v>344</v>
-      </c>
-      <c r="H21" t="s">
-        <v>346</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="K21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" t="s">
-        <v>493</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1">
-        <v>40909</v>
-      </c>
-      <c r="E22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="K22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>41913</v>
+        <v>41061</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>99</v>
+      <c r="J23" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>40330</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>40452</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="H26" s="4"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1">
-        <v>41944</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>394</v>
-      </c>
-      <c r="H24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="K24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" t="s">
-        <v>493</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>41061</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>40330</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B27" t="s">
-        <v>499</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
       <c r="D27" s="1">
-        <v>40452</v>
+        <v>35735</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="G27" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" t="s">
-        <v>225</v>
+        <v>291</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="I27" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>420</v>
+      <c r="J27" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
-        <v>37681</v>
+        <v>40603</v>
       </c>
       <c r="E28" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" t="s">
-        <v>223</v>
+        <v>179</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>419</v>
+      <c r="J28" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>493</v>
+        <v>375</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1">
-        <v>35735</v>
+        <v>36465</v>
       </c>
       <c r="E29" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="G29" t="s">
-        <v>330</v>
-      </c>
-      <c r="H29" t="s">
-        <v>332</v>
+        <v>310</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="I29" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>456</v>
+      <c r="J29" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
-        <v>40603</v>
+        <v>36039</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" t="s">
-        <v>210</v>
+        <v>314</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>415</v>
+      <c r="J30" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="B31" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
-        <v>36465</v>
+        <v>38777</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="F31" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>351</v>
-      </c>
-      <c r="H31" t="s">
-        <v>354</v>
+        <v>323</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>462</v>
+        <v>20</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="K31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1">
-        <v>36039</v>
+        <v>38169</v>
       </c>
       <c r="E32" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="F32" t="s">
-        <v>357</v>
+        <v>236</v>
       </c>
       <c r="G32" t="s">
-        <v>355</v>
-      </c>
-      <c r="H32" t="s">
-        <v>358</v>
+        <v>262</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>463</v>
+      <c r="J32" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="K32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>494</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
-        <v>38777</v>
+        <v>40118</v>
       </c>
       <c r="E33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>40664</v>
+      </c>
+      <c r="E34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="K34" t="s">
         <v>365</v>
       </c>
-      <c r="F33" t="s">
-        <v>366</v>
-      </c>
-      <c r="G33" t="s">
-        <v>364</v>
-      </c>
-      <c r="H33" t="s">
-        <v>367</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="K33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="1">
-        <v>38169</v>
-      </c>
-      <c r="E34" t="s">
-        <v>301</v>
-      </c>
-      <c r="F34" t="s">
-        <v>272</v>
-      </c>
-      <c r="G34" t="s">
-        <v>300</v>
-      </c>
-      <c r="H34" t="s">
-        <v>302</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
-        <v>40118</v>
+        <v>37865</v>
       </c>
       <c r="E35" t="s">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
-      </c>
-      <c r="H35" t="s">
-        <v>247</v>
+        <v>203</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="I35" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>427</v>
+      <c r="J35" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>496</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>375</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1">
-        <v>40664</v>
+        <v>36192</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
-      </c>
-      <c r="H36" t="s">
-        <v>266</v>
+        <v>341</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="I36" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>433</v>
+      <c r="J36" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="K36" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1">
-        <v>37865</v>
+        <v>40817</v>
       </c>
       <c r="E37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="K37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42979</v>
+      </c>
+      <c r="E38" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" t="s">
         <v>39</v>
       </c>
-      <c r="F37" t="s">
-        <v>236</v>
-      </c>
-      <c r="G37" t="s">
-        <v>235</v>
-      </c>
-      <c r="H37" t="s">
-        <v>237</v>
-      </c>
-      <c r="I37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="K37" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>494</v>
-      </c>
-      <c r="B38" t="s">
-        <v>495</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="1">
-        <v>36192</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
       <c r="G38" t="s">
-        <v>382</v>
-      </c>
-      <c r="H38" t="s">
-        <v>383</v>
+        <v>327</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="I38" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>471</v>
+      <c r="J38" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="K38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1">
+        <v>40057</v>
+      </c>
+      <c r="E39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>330</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>37865</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" t="s">
         <v>122</v>
       </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1">
-        <v>40817</v>
-      </c>
-      <c r="E39" t="s">
-        <v>385</v>
-      </c>
-      <c r="F39" t="s">
-        <v>386</v>
-      </c>
-      <c r="G39" t="s">
-        <v>384</v>
-      </c>
-      <c r="H39" t="s">
-        <v>387</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="K40" t="s">
+        <v>82</v>
+      </c>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>42979</v>
+        <v>39600</v>
       </c>
       <c r="E41" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>368</v>
-      </c>
-      <c r="H41" t="s">
-        <v>370</v>
+        <v>334</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="I41" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>467</v>
+      <c r="J41" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="K41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1">
-        <v>40057</v>
+        <v>42370</v>
       </c>
       <c r="E42" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="F42" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
-      </c>
-      <c r="H42" t="s">
-        <v>374</v>
+        <v>337</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="I42" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>468</v>
+      <c r="J42" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="K42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1">
-        <v>37865</v>
+        <v>39783</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" t="s">
-        <v>147</v>
+        <v>26</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="I43" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>399</v>
+      <c r="J43" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>494</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>495</v>
+        <v>373</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1">
-        <v>39600</v>
+        <v>37377</v>
       </c>
       <c r="E44" t="s">
-        <v>376</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>375</v>
-      </c>
-      <c r="H44" t="s">
-        <v>377</v>
+        <v>23</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I44" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>469</v>
+      <c r="J44" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="K44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1">
-        <v>42370</v>
+        <v>42767</v>
       </c>
       <c r="E45" t="s">
-        <v>379</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
-        <v>380</v>
+        <v>177</v>
       </c>
       <c r="G45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H45" t="s">
-        <v>381</v>
+        <v>175</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="I45" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>470</v>
+      <c r="J45" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="K45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s">
-        <v>493</v>
+        <v>379</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>39783</v>
+        <v>39692</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="I46" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>95</v>
+      <c r="J46" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="K46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1">
+        <v>41030</v>
+      </c>
+      <c r="E47" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K47" t="s">
+        <v>82</v>
+      </c>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>41548</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s">
+        <v>88</v>
+      </c>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49" t="s">
+        <v>379</v>
+      </c>
+      <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="1">
-        <v>37377</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="D49" s="1">
+        <v>42095</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42887</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>496</v>
-      </c>
-      <c r="B48" t="s">
-        <v>497</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1">
-        <v>42767</v>
-      </c>
-      <c r="E48" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" t="s">
-        <v>203</v>
-      </c>
-      <c r="H48" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>498</v>
-      </c>
-      <c r="B49" t="s">
-        <v>499</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1">
-        <v>39692</v>
-      </c>
-      <c r="E49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" t="s">
-        <v>162</v>
-      </c>
-      <c r="I49" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="1">
-        <v>41030</v>
-      </c>
-      <c r="E50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F50" t="s">
-        <v>276</v>
-      </c>
-      <c r="G50" t="s">
-        <v>274</v>
-      </c>
-      <c r="H50" t="s">
-        <v>277</v>
-      </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>436</v>
+      <c r="J50" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="K50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>41548</v>
+        <v>40634</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>100</v>
+      <c r="J51" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="K51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
-        <v>42095</v>
+        <v>39995</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>80</v>
+        <v>242</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="I52" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>101</v>
+      <c r="J52" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="K52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1">
-        <v>42887</v>
+        <v>40299</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H53" t="s">
-        <v>158</v>
+        <v>187</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>401</v>
+        <v>20</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="K53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>377</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D54" s="1">
-        <v>40634</v>
+        <v>43040</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>75</v>
+        <v>200</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="s">
+        <v>84</v>
+      </c>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="1">
+        <v>40969</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K55" t="s">
         <v>88</v>
       </c>
-      <c r="K54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
         <v>19</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1">
-        <v>39995</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
-      </c>
-      <c r="G55" t="s">
-        <v>278</v>
-      </c>
-      <c r="H55" t="s">
-        <v>279</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="K55" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>496</v>
-      </c>
-      <c r="B56" t="s">
-        <v>497</v>
-      </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D56" s="1">
-        <v>40299</v>
+        <v>38869</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
-        <v>215</v>
-      </c>
-      <c r="H56" t="s">
-        <v>217</v>
+        <v>268</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="I56" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>417</v>
+      <c r="J56" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="K56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>496</v>
-      </c>
-      <c r="B57" t="s">
-        <v>497</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="1">
-        <v>43040</v>
-      </c>
-      <c r="E57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F57" t="s">
-        <v>233</v>
-      </c>
-      <c r="G57" t="s">
-        <v>232</v>
-      </c>
-      <c r="H57" t="s">
-        <v>234</v>
-      </c>
-      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="H57" s="4"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="1">
+        <v>42156</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I58" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>378</v>
+      </c>
+      <c r="B59" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>40026</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" t="s">
-        <v>497</v>
-      </c>
-      <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="1">
-        <v>40969</v>
-      </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" t="s">
-        <v>161</v>
-      </c>
-      <c r="G58" t="s">
-        <v>193</v>
-      </c>
-      <c r="H58" t="s">
-        <v>194</v>
-      </c>
-      <c r="I58" t="s">
-        <v>53</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="1">
-        <v>38869</v>
-      </c>
-      <c r="E59" t="s">
-        <v>307</v>
-      </c>
-      <c r="F59" t="s">
-        <v>308</v>
-      </c>
-      <c r="G59" t="s">
-        <v>306</v>
-      </c>
-      <c r="H59" t="s">
-        <v>309</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="K59" t="s">
+        <v>82</v>
+      </c>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>373</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42309</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="K59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J60" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K60" t="s">
+        <v>82</v>
+      </c>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1">
-        <v>39479</v>
+        <v>38504</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G61" t="s">
-        <v>241</v>
-      </c>
-      <c r="H61" t="s">
-        <v>243</v>
+        <v>198</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="I61" t="s">
         <v>53</v>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>426</v>
+      <c r="J61" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="K61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
       </c>
       <c r="D62" s="1">
-        <v>42156</v>
+        <v>40544</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>76</v>
+        <v>116</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>94</v>
+      <c r="J62" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="K62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>40026</v>
+        <v>41487</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
-        <v>218</v>
-      </c>
-      <c r="H63" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="I63" t="s">
         <v>53</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>418</v>
+      <c r="J63" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="K63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1">
-        <v>42309</v>
+        <v>43282</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>118</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>112</v>
+        <v>147</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" t="s">
+        <v>82</v>
+      </c>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>373</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1">
+        <v>36465</v>
+      </c>
+      <c r="E65" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" t="s">
+        <v>349</v>
+      </c>
+      <c r="G65" t="s">
+        <v>348</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K65" t="s">
+        <v>82</v>
+      </c>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="1">
+        <v>40057</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" t="s">
         <v>91</v>
       </c>
-      <c r="K64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>496</v>
-      </c>
-      <c r="B65" t="s">
-        <v>497</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1">
-        <v>38504</v>
-      </c>
-      <c r="E65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" t="s">
-        <v>230</v>
-      </c>
-      <c r="G65" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" t="s">
-        <v>231</v>
-      </c>
-      <c r="I65" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>498</v>
-      </c>
-      <c r="B66" t="s">
-        <v>499</v>
-      </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="1">
-        <v>40544</v>
-      </c>
-      <c r="E66" t="s">
-        <v>141</v>
-      </c>
-      <c r="F66" t="s">
-        <v>142</v>
-      </c>
-      <c r="G66" t="s">
-        <v>140</v>
-      </c>
-      <c r="H66" t="s">
-        <v>143</v>
+      <c r="H66" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="I66" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>397</v>
+      <c r="J66" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1">
-        <v>41487</v>
+        <v>42795</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
-      </c>
-      <c r="H67" t="s">
-        <v>251</v>
+        <v>298</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="I67" t="s">
         <v>53</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>428</v>
+      <c r="J67" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="K67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1">
-        <v>43282</v>
+        <v>41426</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>174</v>
-      </c>
-      <c r="H68" t="s">
-        <v>176</v>
+        <v>246</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="I68" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>406</v>
+      <c r="J68" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="K68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s">
-        <v>493</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
-        <v>36465</v>
+        <v>40513</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F69" t="s">
-        <v>391</v>
+        <v>159</v>
       </c>
       <c r="G69" t="s">
-        <v>390</v>
-      </c>
-      <c r="H69" t="s">
-        <v>392</v>
+        <v>157</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="I69" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>474</v>
+      <c r="J69" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="K69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>375</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
         <v>40057</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>70</v>
+        <v>274</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="I70" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>89</v>
+      <c r="J70" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="K70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>495</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="1">
+        <v>40087</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K71" t="s">
+        <v>82</v>
+      </c>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>373</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>37591</v>
+      </c>
+      <c r="E72" t="s">
+        <v>295</v>
+      </c>
+      <c r="F72" t="s">
+        <v>296</v>
+      </c>
+      <c r="G72" t="s">
+        <v>294</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" t="s">
+        <v>53</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K72" t="s">
+        <v>372</v>
+      </c>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1">
+        <v>36770</v>
+      </c>
+      <c r="E73" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" t="s">
+        <v>289</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K73" t="s">
+        <v>82</v>
+      </c>
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>373</v>
+      </c>
+      <c r="C74" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="1">
-        <v>42795</v>
-      </c>
-      <c r="E71" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" t="s">
-        <v>338</v>
-      </c>
-      <c r="G71" t="s">
-        <v>337</v>
-      </c>
-      <c r="H71" t="s">
-        <v>339</v>
-      </c>
-      <c r="I71" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>496</v>
-      </c>
-      <c r="B72" t="s">
-        <v>497</v>
-      </c>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="1">
-        <v>41426</v>
-      </c>
-      <c r="E72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" t="s">
-        <v>161</v>
-      </c>
-      <c r="G72" t="s">
-        <v>282</v>
-      </c>
-      <c r="H72" t="s">
-        <v>283</v>
-      </c>
-      <c r="I72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="K72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>498</v>
-      </c>
-      <c r="B73" t="s">
-        <v>499</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="1">
-        <v>40513</v>
-      </c>
-      <c r="E73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" t="s">
-        <v>187</v>
-      </c>
-      <c r="G73" t="s">
-        <v>185</v>
-      </c>
-      <c r="H73" t="s">
-        <v>188</v>
-      </c>
-      <c r="I73" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>494</v>
-      </c>
-      <c r="B74" t="s">
-        <v>495</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
       <c r="D74" s="1">
-        <v>40057</v>
+        <v>41699</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
-      </c>
-      <c r="H74" t="s">
-        <v>315</v>
+        <v>17</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="I74" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>450</v>
+      <c r="J74" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="K74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1">
-        <v>40087</v>
+        <v>40299</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>77</v>
+        <v>248</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="I75" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>91</v>
+      <c r="J75" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="K75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D76" s="1">
-        <v>37591</v>
+        <v>40664</v>
       </c>
       <c r="E76" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="F76" t="s">
-        <v>335</v>
+        <v>226</v>
       </c>
       <c r="G76" t="s">
-        <v>333</v>
-      </c>
-      <c r="H76" t="s">
-        <v>336</v>
+        <v>224</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I76" t="s">
         <v>53</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>457</v>
+      <c r="J76" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="K76" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" t="s">
-        <v>497</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="1">
-        <v>36770</v>
-      </c>
-      <c r="E77" t="s">
-        <v>328</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
-      </c>
-      <c r="G77" t="s">
-        <v>327</v>
-      </c>
-      <c r="H77" t="s">
-        <v>329</v>
-      </c>
-      <c r="I77" t="s">
-        <v>53</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+      <c r="H77" s="4"/>
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1">
-        <v>41699</v>
+        <v>42705</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>69</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H78" s="5"/>
       <c r="I78" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>87</v>
+      <c r="J78" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="K78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="B79" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D79" s="1">
-        <v>40299</v>
+        <v>42186</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="G79" t="s">
-        <v>284</v>
-      </c>
-      <c r="H79" t="s">
-        <v>285</v>
+        <v>167</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>440</v>
+        <v>53</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="K79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D80" s="1">
-        <v>40664</v>
+        <v>43647</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="F80" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
-      </c>
-      <c r="H80" t="s">
-        <v>263</v>
+        <v>300</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="I80" t="s">
         <v>53</v>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>432</v>
+      <c r="J80" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="K80" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="B81" t="s">
-        <v>493</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D81" s="1">
-        <v>43221</v>
+        <v>38139</v>
       </c>
       <c r="E81" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="G81" t="s">
-        <v>170</v>
-      </c>
-      <c r="H81" t="s">
-        <v>173</v>
+        <v>124</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I81" t="s">
         <v>20</v>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>405</v>
+      <c r="J81" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="K81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="B82" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1">
-        <v>42705</v>
+        <v>37165</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="G82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="I82" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K82" t="s">
+        <v>82</v>
+      </c>
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>374</v>
+      </c>
+      <c r="B83" t="s">
+        <v>375</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1">
+        <v>37500</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" t="s">
+        <v>285</v>
+      </c>
+      <c r="G83" t="s">
+        <v>283</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>496</v>
-      </c>
-      <c r="B83" t="s">
-        <v>497</v>
-      </c>
-      <c r="C83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="1">
-        <v>42186</v>
-      </c>
-      <c r="E83" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" t="s">
-        <v>197</v>
-      </c>
-      <c r="G83" t="s">
-        <v>195</v>
-      </c>
-      <c r="H83" t="s">
-        <v>198</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="J83" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E84" t="s">
+        <v>226</v>
+      </c>
+      <c r="F84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s">
+        <v>250</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K84" t="s">
+        <v>82</v>
+      </c>
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1">
+        <v>38687</v>
+      </c>
+      <c r="E85" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85" t="s">
         <v>53</v>
       </c>
-      <c r="J83" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>121</v>
-      </c>
-      <c r="B84" t="s">
-        <v>493</v>
-      </c>
-      <c r="C84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="1">
-        <v>43647</v>
-      </c>
-      <c r="E84" t="s">
-        <v>341</v>
-      </c>
-      <c r="F84" t="s">
-        <v>342</v>
-      </c>
-      <c r="G84" t="s">
-        <v>340</v>
-      </c>
-      <c r="H84" t="s">
-        <v>343</v>
-      </c>
-      <c r="I84" t="s">
-        <v>53</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>498</v>
-      </c>
-      <c r="B85" t="s">
-        <v>499</v>
-      </c>
-      <c r="C85" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="1">
-        <v>38139</v>
-      </c>
-      <c r="E85" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" t="s">
-        <v>150</v>
-      </c>
-      <c r="G85" t="s">
-        <v>148</v>
-      </c>
-      <c r="H85" t="s">
-        <v>151</v>
-      </c>
-      <c r="I85" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="3" t="s">
         <v>398</v>
       </c>
       <c r="K85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>496</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1">
-        <v>37165</v>
+        <v>43282</v>
       </c>
       <c r="E86" t="s">
-        <v>325</v>
+        <v>144</v>
       </c>
       <c r="F86" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>324</v>
-      </c>
-      <c r="H86" t="s">
-        <v>326</v>
+        <v>143</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="I86" t="s">
         <v>53</v>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>454</v>
+      <c r="J86" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="K86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>494</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
-        <v>37500</v>
+        <v>43862</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="F87" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="G87" t="s">
-        <v>321</v>
+        <v>252</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="I87" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>453</v>
+      <c r="J87" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="K87" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>496</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D88" s="1">
-        <v>42370</v>
+        <v>41426</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="G88" t="s">
-        <v>286</v>
-      </c>
-      <c r="H88" t="s">
-        <v>287</v>
+        <v>150</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="I88" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>441</v>
+      <c r="J88" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="K88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="B89" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1">
-        <v>38687</v>
+        <v>38838</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>163</v>
-      </c>
-      <c r="H89" t="s">
-        <v>166</v>
+        <v>113</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>403</v>
+        <v>20</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="K89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>498</v>
+        <v>374</v>
       </c>
       <c r="B90" t="s">
-        <v>499</v>
+        <v>375</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="1">
-        <v>43282</v>
+        <v>36951</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>167</v>
-      </c>
-      <c r="H90" t="s">
-        <v>169</v>
+        <v>281</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>404</v>
+        <v>20</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="K90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D91" s="1">
-        <v>39052</v>
+        <v>38534</v>
       </c>
       <c r="E91" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="F91" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="G91" t="s">
-        <v>288</v>
-      </c>
-      <c r="H91" t="s">
-        <v>290</v>
+        <v>234</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="I91" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>442</v>
+        <v>53</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="K91" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1">
-        <v>41426</v>
+        <v>38534</v>
       </c>
       <c r="E92" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>177</v>
-      </c>
-      <c r="H92" t="s">
-        <v>180</v>
+        <v>27</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="I92" t="s">
         <v>20</v>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>407</v>
+      <c r="J92" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="1">
-        <v>38838</v>
+        <v>42917</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
-      </c>
-      <c r="H93" t="s">
-        <v>139</v>
+        <v>27</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="I93" t="s">
         <v>20</v>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>396</v>
+      <c r="J93" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="K93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>494</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
-        <v>36951</v>
+        <v>41852</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>319</v>
-      </c>
-      <c r="H94" t="s">
-        <v>320</v>
+        <v>255</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="I94" t="s">
         <v>20</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>452</v>
+      <c r="J94" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="K94" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1">
-        <v>38534</v>
+        <v>40299</v>
       </c>
       <c r="E95" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="G95" t="s">
-        <v>270</v>
-      </c>
-      <c r="H95" t="s">
-        <v>273</v>
+        <v>171</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>435</v>
+        <v>20</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="K95" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>378</v>
+      </c>
+      <c r="B96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="1">
+        <v>39295</v>
+      </c>
+      <c r="E96" t="s">
+        <v>154</v>
+      </c>
+      <c r="F96" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" t="s">
+        <v>153</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K96" t="s">
+        <v>82</v>
+      </c>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D97" s="1">
-        <v>38534</v>
+        <v>39203</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="G97" t="s">
-        <v>27</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="I97" t="s">
         <v>20</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>96</v>
+      <c r="J97" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="K97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>122</v>
-      </c>
-      <c r="B98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="1">
-        <v>42917</v>
-      </c>
-      <c r="E98" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s">
-        <v>252</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s">
-        <v>253</v>
-      </c>
-      <c r="I98" t="s">
-        <v>20</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="K98" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D98" s="1"/>
+      <c r="H98" s="4"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>41852</v>
+        <v>44317</v>
       </c>
       <c r="E99" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="G99" t="s">
-        <v>291</v>
-      </c>
-      <c r="H99" t="s">
-        <v>292</v>
+        <v>206</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="I99" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>443</v>
+      <c r="J99" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="K99" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>496</v>
+        <v>378</v>
       </c>
       <c r="B100" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D100" s="1">
-        <v>40299</v>
+        <v>41548</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="G100" t="s">
-        <v>199</v>
-      </c>
-      <c r="H100" t="s">
-        <v>202</v>
+        <v>196</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="I100" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>413</v>
+      <c r="J100" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="K100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D101" s="1">
-        <v>39295</v>
+        <v>44378</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="F101" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>181</v>
-      </c>
-      <c r="H101" t="s">
-        <v>184</v>
+        <v>221</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="I101" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>408</v>
+      <c r="J101" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="K101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>498</v>
+        <v>376</v>
       </c>
       <c r="B102" t="s">
-        <v>499</v>
+        <v>377</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D102" s="1">
-        <v>39203</v>
+        <v>43709</v>
       </c>
       <c r="E102" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
-      </c>
-      <c r="H102" t="s">
-        <v>136</v>
+        <v>256</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="I102" t="s">
         <v>20</v>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>395</v>
+      <c r="J102" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="K102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>498</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1">
-        <v>44317</v>
+        <v>43862</v>
       </c>
       <c r="E103" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="F103" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="G103" t="s">
-        <v>238</v>
-      </c>
-      <c r="H103" t="s">
-        <v>240</v>
+        <v>218</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="I103" t="s">
         <v>20</v>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>425</v>
+      <c r="J103" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K103" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>498</v>
-      </c>
-      <c r="B105" t="s">
-        <v>499</v>
-      </c>
-      <c r="C105" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
         <v>45</v>
       </c>
-      <c r="D105" s="1">
-        <v>41548</v>
-      </c>
-      <c r="E105" t="s">
-        <v>227</v>
-      </c>
-      <c r="F105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G105" t="s">
-        <v>226</v>
-      </c>
-      <c r="H105" t="s">
-        <v>228</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="D104" s="1">
+        <v>41730</v>
+      </c>
+      <c r="E104" t="s">
+        <v>266</v>
+      </c>
+      <c r="F104" t="s">
+        <v>110</v>
+      </c>
+      <c r="G104" t="s">
+        <v>265</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I104" t="s">
         <v>20</v>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="K105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>122</v>
-      </c>
-      <c r="B106" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="1">
-        <v>44378</v>
-      </c>
-      <c r="E106" t="s">
-        <v>258</v>
-      </c>
-      <c r="F106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" t="s">
-        <v>257</v>
-      </c>
-      <c r="H106" t="s">
-        <v>259</v>
-      </c>
-      <c r="I106" t="s">
-        <v>20</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="K106" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>496</v>
-      </c>
-      <c r="B107" t="s">
-        <v>497</v>
-      </c>
-      <c r="C107" t="s">
-        <v>50</v>
-      </c>
-      <c r="D107" s="1">
-        <v>43709</v>
-      </c>
-      <c r="E107" t="s">
-        <v>294</v>
-      </c>
-      <c r="F107" t="s">
-        <v>295</v>
-      </c>
-      <c r="G107" t="s">
-        <v>293</v>
-      </c>
-      <c r="H107" t="s">
-        <v>296</v>
-      </c>
-      <c r="I107" t="s">
-        <v>20</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K107" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" t="s">
-        <v>52</v>
-      </c>
-      <c r="D108" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E108" t="s">
-        <v>255</v>
-      </c>
-      <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>254</v>
-      </c>
-      <c r="H108" t="s">
-        <v>256</v>
-      </c>
-      <c r="I108" t="s">
-        <v>20</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="K108" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" t="s">
-        <v>45</v>
-      </c>
-      <c r="D109" s="1">
-        <v>41730</v>
-      </c>
-      <c r="E109" t="s">
-        <v>304</v>
-      </c>
-      <c r="F109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" t="s">
-        <v>303</v>
-      </c>
-      <c r="H109" t="s">
-        <v>305</v>
-      </c>
-      <c r="I109" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="K109" t="s">
-        <v>491</v>
-      </c>
+      <c r="J104" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K104" t="s">
+        <v>371</v>
+      </c>
+      <c r="L104"/>
     </row>
   </sheetData>
-  <sortState ref="E2:L109">
-    <sortCondition ref="E1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -5,20 +5,29 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\NetBeansProjects\SistemasInformacion2\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4907745-2701-4BA9-AF00-69FD9A715972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2DE284-B2FC-47B3-AB14-8B1520A5A529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="2340" windowWidth="19785" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="6" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="424">
   <si>
     <t>Nombre</t>
   </si>
@@ -80,9 +89,6 @@
     <t>Fernandez</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
     <t>Martinez</t>
   </si>
   <si>
@@ -92,27 +98,15 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Ana Isabel</t>
-  </si>
-  <si>
     <t>Alaiz</t>
   </si>
   <si>
     <t>Miguel</t>
   </si>
   <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
     <t>Marta</t>
   </si>
   <si>
-    <t>Francisco</t>
-  </si>
-  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>García</t>
   </si>
   <si>
-    <t>Llamazares</t>
-  </si>
-  <si>
     <t>Ramos</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t>Robles</t>
   </si>
   <si>
-    <t>Bueno</t>
-  </si>
-  <si>
     <t>09784112G</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>Alencar</t>
   </si>
   <si>
-    <t>Alves</t>
-  </si>
-  <si>
     <t>Lidiane</t>
   </si>
   <si>
@@ -212,24 +197,12 @@
     <t>Saaida</t>
   </si>
   <si>
-    <t>Bouzidi</t>
-  </si>
-  <si>
     <t>X5106131Q</t>
   </si>
   <si>
     <t>Khadouj</t>
   </si>
   <si>
-    <t>Elammary</t>
-  </si>
-  <si>
-    <t>Souad</t>
-  </si>
-  <si>
-    <t>Elbada</t>
-  </si>
-  <si>
     <t>01234567L</t>
   </si>
   <si>
@@ -299,21 +272,12 @@
     <t>Armando</t>
   </si>
   <si>
-    <t>Bienvenido</t>
-  </si>
-  <si>
-    <t>Luisa</t>
-  </si>
-  <si>
     <t>Gracia</t>
   </si>
   <si>
     <t>Puerto</t>
   </si>
   <si>
-    <t>Lorena</t>
-  </si>
-  <si>
     <t>Pasado</t>
   </si>
   <si>
@@ -362,9 +326,6 @@
     <t>Sánchez</t>
   </si>
   <si>
-    <t>Asensio</t>
-  </si>
-  <si>
     <t>09548206D</t>
   </si>
   <si>
@@ -377,15 +338,9 @@
     <t>09671968P</t>
   </si>
   <si>
-    <t>Andrés</t>
-  </si>
-  <si>
     <t>Getino</t>
   </si>
   <si>
-    <t>Serrano</t>
-  </si>
-  <si>
     <t>09724050H</t>
   </si>
   <si>
@@ -395,9 +350,6 @@
     <t>Chamorro</t>
   </si>
   <si>
-    <t>Castellanos</t>
-  </si>
-  <si>
     <t>09634700T</t>
   </si>
   <si>
@@ -416,18 +368,9 @@
     <t>Bonifacio</t>
   </si>
   <si>
-    <t>Alcoba</t>
-  </si>
-  <si>
     <t>09548247G</t>
   </si>
   <si>
-    <t>Braulio</t>
-  </si>
-  <si>
-    <t>Feliz</t>
-  </si>
-  <si>
     <t>Pisabarro</t>
   </si>
   <si>
@@ -470,9 +413,6 @@
     <t>Gutierrez</t>
   </si>
   <si>
-    <t>Casimiro</t>
-  </si>
-  <si>
     <t>González</t>
   </si>
   <si>
@@ -494,15 +434,9 @@
     <t>Salas</t>
   </si>
   <si>
-    <t>Benavides</t>
-  </si>
-  <si>
     <t>09719898Y</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>Herreras</t>
   </si>
   <si>
@@ -524,9 +458,6 @@
     <t>09611099C</t>
   </si>
   <si>
-    <t>Consuelo</t>
-  </si>
-  <si>
     <t>09632873J</t>
   </si>
   <si>
@@ -581,27 +512,15 @@
     <t>Demetrio</t>
   </si>
   <si>
-    <t>Aller</t>
-  </si>
-  <si>
-    <t>Castrillo</t>
-  </si>
-  <si>
     <t>09611071S</t>
   </si>
   <si>
     <t>Diana</t>
   </si>
   <si>
-    <t>Fidalgo</t>
-  </si>
-  <si>
     <t>71393411P</t>
   </si>
   <si>
-    <t>Elena</t>
-  </si>
-  <si>
     <t>71404625K</t>
   </si>
   <si>
@@ -620,12 +539,6 @@
     <t>Dolores</t>
   </si>
   <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
     <t>Fresco</t>
   </si>
   <si>
@@ -668,15 +581,9 @@
     <t>02614035Q</t>
   </si>
   <si>
-    <t>Felix</t>
-  </si>
-  <si>
     <t>Gomara</t>
   </si>
   <si>
-    <t>Iban</t>
-  </si>
-  <si>
     <t>09689676Y</t>
   </si>
   <si>
@@ -686,24 +593,15 @@
     <t>Generoso</t>
   </si>
   <si>
-    <t>Soto</t>
-  </si>
-  <si>
     <t>71393354C</t>
   </si>
   <si>
     <t>Herminia</t>
   </si>
   <si>
-    <t>Santín</t>
-  </si>
-  <si>
     <t>10405904Z</t>
   </si>
   <si>
-    <t>Héctor</t>
-  </si>
-  <si>
     <t>Melcón</t>
   </si>
   <si>
@@ -725,15 +623,9 @@
     <t>Germán</t>
   </si>
   <si>
-    <t>Bariales</t>
-  </si>
-  <si>
     <t>09314602Q</t>
   </si>
   <si>
-    <t>Inés</t>
-  </si>
-  <si>
     <t>Riverto</t>
   </si>
   <si>
@@ -767,21 +659,12 @@
     <t>10940987W</t>
   </si>
   <si>
-    <t>Julio Ernesto</t>
-  </si>
-  <si>
     <t>71393396Q</t>
   </si>
   <si>
-    <t>Justina</t>
-  </si>
-  <si>
     <t>10575307E</t>
   </si>
   <si>
-    <t>Julio Pedro</t>
-  </si>
-  <si>
     <t>09632539R</t>
   </si>
   <si>
@@ -800,18 +683,12 @@
     <t>Sonia</t>
   </si>
   <si>
-    <t>Sevillano</t>
-  </si>
-  <si>
     <t>Gomez</t>
   </si>
   <si>
     <t>Soledad</t>
   </si>
   <si>
-    <t>Arias</t>
-  </si>
-  <si>
     <t>09786363R</t>
   </si>
   <si>
@@ -833,12 +710,6 @@
     <t>09611066X</t>
   </si>
   <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Galán</t>
-  </si>
-  <si>
     <t>Amo</t>
   </si>
   <si>
@@ -851,9 +722,6 @@
     <t>09548287K</t>
   </si>
   <si>
-    <t>Rosario</t>
-  </si>
-  <si>
     <t>Laiz</t>
   </si>
   <si>
@@ -896,9 +764,6 @@
     <t>09548215H</t>
   </si>
   <si>
-    <t>Oscar</t>
-  </si>
-  <si>
     <t>Márquez</t>
   </si>
   <si>
@@ -911,9 +776,6 @@
     <t>71597570L</t>
   </si>
   <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
     <t>Manzanares</t>
   </si>
   <si>
@@ -923,9 +785,6 @@
     <t>09570258G</t>
   </si>
   <si>
-    <t>Nieves</t>
-  </si>
-  <si>
     <t>Morán</t>
   </si>
   <si>
@@ -953,9 +812,6 @@
     <t>Mauro</t>
   </si>
   <si>
-    <t>Belerda</t>
-  </si>
-  <si>
     <t>Aparicio</t>
   </si>
   <si>
@@ -992,27 +848,18 @@
     <t>Adolfo</t>
   </si>
   <si>
-    <t>Bayon</t>
-  </si>
-  <si>
     <t>12160221Y</t>
   </si>
   <si>
     <t>Iván</t>
   </si>
   <si>
-    <t>Carpintero</t>
-  </si>
-  <si>
     <t>Cepin</t>
   </si>
   <si>
     <t>12649208J</t>
   </si>
   <si>
-    <t>Jesús Manuel</t>
-  </si>
-  <si>
     <t>Centeno</t>
   </si>
   <si>
@@ -1025,9 +872,6 @@
     <t>Cerro</t>
   </si>
   <si>
-    <t>Ponga</t>
-  </si>
-  <si>
     <t>12684218V</t>
   </si>
   <si>
@@ -1067,16 +911,7 @@
     <t>Lombás</t>
   </si>
   <si>
-    <t>Almarza</t>
-  </si>
-  <si>
     <t>71404629W</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Río</t>
   </si>
   <si>
     <t>09570262P</t>
@@ -1913,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,7 +1807,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>19000</v>
@@ -1989,7 +1824,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>26000</v>
@@ -2040,7 +1875,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>31000</v>
@@ -2057,7 +1892,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>12000</v>
@@ -2074,7 +1909,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>14500</v>
@@ -2091,7 +1926,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>20000</v>
@@ -2108,7 +1943,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>16000</v>
@@ -2125,7 +1960,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>11000</v>
@@ -2142,7 +1977,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>31000</v>
@@ -2215,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G1">
         <v>4.7</v>
@@ -2229,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>1.6</v>
@@ -2243,7 +2078,7 @@
         <v>3.6</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -2257,7 +2092,7 @@
         <v>6.3</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G4">
         <v>23.6</v>
@@ -2271,7 +2106,7 @@
         <v>8.5</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -2285,7 +2120,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G6">
         <v>6.7</v>
@@ -2299,7 +2134,7 @@
         <v>10.35</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <v>0.6</v>
@@ -2313,7 +2148,7 @@
         <v>11.15</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2661,20 +2496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
+  <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.28515625" customWidth="1"/>
     <col min="12" max="12" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
@@ -2690,8 +2521,8 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2703,3558 +2534,3546 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
-        <v>43101</v>
+        <v>42461</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
-        <v>43101</v>
+        <v>42461</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>43617</v>
+        <v>42979</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="K4" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>43617</v>
+        <v>42979</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43221</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43222</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="K6" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="H7" s="4"/>
+      <c r="J7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
-        <v>41426</v>
+        <v>40787</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>476</v>
+        <v>418</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
-        <v>41426</v>
+        <v>40787</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>41426</v>
+        <v>40787</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>474</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
-        <v>41671</v>
+        <v>41030</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>474</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
-        <v>41671</v>
+        <v>41030</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="K12" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>41671</v>
+        <v>43952</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="K13" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>39356</v>
+        <v>38718</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>351</v>
+        <v>77</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1">
-        <v>39387</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="K15" t="s">
-        <v>82</v>
-      </c>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
-        <v>39022</v>
+        <v>38384</v>
       </c>
       <c r="E16" t="s">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>469</v>
+        <v>411</v>
       </c>
       <c r="K16" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>43831</v>
+        <v>43191</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>468</v>
+        <v>176</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>36831</v>
+        <v>36192</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="K18" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
-        <v>41548</v>
+        <v>40909</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K19" t="s">
         <v>304</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="K19" t="s">
-        <v>362</v>
       </c>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>373</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
-        <v>40909</v>
+        <v>40269</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>462</v>
+        <v>141</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1">
-        <v>41944</v>
+        <v>41306</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>462</v>
+        <v>223</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
-        <v>41061</v>
+        <v>40422</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
-        <v>40330</v>
+        <v>44075</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>460</v>
+        <v>239</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1">
-        <v>40452</v>
+        <v>39814</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>195</v>
+        <v>236</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-      <c r="H26" s="4"/>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1">
-        <v>35735</v>
+        <v>35096</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>117</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
-        <v>40603</v>
+        <v>39965</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1">
-        <v>36465</v>
+        <v>35827</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="K29" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="L29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
-        <v>36039</v>
+        <v>35400</v>
       </c>
       <c r="E30" t="s">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
-        <v>38777</v>
+        <v>38139</v>
       </c>
       <c r="E31" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>326</v>
+        <v>97</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1">
+        <v>37530</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1">
-        <v>38169</v>
-      </c>
-      <c r="E32" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
       <c r="K32" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="1">
-        <v>40118</v>
-      </c>
-      <c r="E33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K33" t="s">
-        <v>82</v>
-      </c>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>376</v>
-      </c>
-      <c r="B34" t="s">
-        <v>377</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1">
-        <v>40664</v>
-      </c>
-      <c r="E34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="K34" t="s">
-        <v>365</v>
-      </c>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>378</v>
-      </c>
-      <c r="B35" t="s">
-        <v>379</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1">
-        <v>37865</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G35" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K35" t="s">
-        <v>360</v>
-      </c>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1">
-        <v>36192</v>
+        <v>35551</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="G36" t="s">
-        <v>341</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>342</v>
+        <v>213</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="K36" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1">
+        <v>40179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="1">
-        <v>40817</v>
-      </c>
-      <c r="E37" t="s">
-        <v>344</v>
-      </c>
-      <c r="F37" t="s">
-        <v>345</v>
-      </c>
-      <c r="G37" t="s">
-        <v>343</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="K37" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1">
-        <v>42979</v>
+        <v>42339</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="K38" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L38"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="1">
-        <v>40057</v>
+        <v>39417</v>
       </c>
       <c r="E39" t="s">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>330</v>
+        <v>94</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1">
-        <v>37865</v>
+        <v>37226</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>39600</v>
+        <v>38961</v>
       </c>
       <c r="E41" t="s">
-        <v>335</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>334</v>
+        <v>166</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1">
-        <v>42370</v>
+        <v>41730</v>
       </c>
       <c r="E42" t="s">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>337</v>
+        <v>186</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L42"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1">
-        <v>39783</v>
+        <v>39142</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>441</v>
+        <v>214</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>37377</v>
+        <v>36739</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>42</v>
+        <v>184</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>42767</v>
+        <v>42125</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>379</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>39692</v>
+        <v>39052</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="1">
-        <v>41030</v>
-      </c>
-      <c r="E47" t="s">
-        <v>239</v>
-      </c>
-      <c r="F47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" t="s">
-        <v>238</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
       <c r="J47" s="3" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1">
-        <v>41548</v>
+        <v>40909</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>435</v>
+        <v>194</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1">
-        <v>42095</v>
+        <v>41456</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>434</v>
+        <v>22</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="K49" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L49"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>373</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D50" s="1">
-        <v>42887</v>
+        <v>42248</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="K50" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L50"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1">
-        <v>40634</v>
+        <v>44013</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>431</v>
+        <v>205</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L51"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>39995</v>
+        <v>39356</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="G52" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="K52" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="L52"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1">
-        <v>40299</v>
+        <v>39661</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="K53" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1">
-        <v>43040</v>
+        <v>42401</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="K54" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L54"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1">
-        <v>40969</v>
+        <v>40330</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="K55" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L55"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="1">
-        <v>38869</v>
-      </c>
-      <c r="E56" t="s">
-        <v>269</v>
-      </c>
-      <c r="F56" t="s">
-        <v>270</v>
-      </c>
-      <c r="G56" t="s">
-        <v>268</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K56" t="s">
-        <v>82</v>
-      </c>
       <c r="L56"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
-      <c r="H57" s="4"/>
       <c r="L57"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="1">
-        <v>42156</v>
-      </c>
-      <c r="E58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K58" t="s">
-        <v>82</v>
-      </c>
       <c r="L58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>378</v>
-      </c>
-      <c r="B59" t="s">
-        <v>379</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1">
-        <v>40026</v>
-      </c>
-      <c r="E59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" t="s">
-        <v>190</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="K59" t="s">
-        <v>82</v>
-      </c>
       <c r="L59"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1">
-        <v>42309</v>
+        <v>41671</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>67</v>
+        <v>269</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="K60" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D61" s="1">
-        <v>38504</v>
+        <v>37865</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="K61" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L61"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1">
-        <v>40544</v>
+        <v>39904</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>119</v>
+        <v>267</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L62"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
+        <v>315</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>40848</v>
+      </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" t="s">
+        <v>254</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s">
         <v>19</v>
       </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1">
-        <v>41487</v>
-      </c>
-      <c r="E63" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" t="s">
-        <v>215</v>
-      </c>
-      <c r="G63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I63" t="s">
-        <v>53</v>
-      </c>
       <c r="J63" s="3" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="K63" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L63"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
-        <v>43282</v>
+        <v>42644</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="K64" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L64"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1">
-        <v>36465</v>
+        <v>35827</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
-      </c>
-      <c r="F65" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>348</v>
+        <v>69</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="K65" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L65"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" s="1">
-        <v>40057</v>
+        <v>39417</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>416</v>
+        <v>294</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="I66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K66" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D67" s="1">
-        <v>42795</v>
+        <v>42156</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="F67" t="s">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>298</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>415</v>
+        <v>52</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="K67" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L67"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B68" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>40787</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B68" t="s">
-        <v>377</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="1">
-        <v>41426</v>
-      </c>
-      <c r="E68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" t="s">
-        <v>246</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="K68" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L68"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1">
-        <v>40513</v>
+        <v>39873</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="K69" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L69"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D70" s="1">
-        <v>40057</v>
+        <v>39417</v>
       </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="F70" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="G70" t="s">
-        <v>274</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>277</v>
+        <v>231</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="K70" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L70"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
-        <v>40087</v>
+        <v>39448</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>410</v>
+        <v>216</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="K71" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L71"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1">
-        <v>37591</v>
+        <v>36951</v>
       </c>
       <c r="E72" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="G72" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="K72" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="L72"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D73" s="1">
-        <v>36770</v>
+        <v>36130</v>
       </c>
       <c r="E73" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>407</v>
+        <v>170</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="K73" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>373</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1">
-        <v>41699</v>
+        <v>41061</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="I74" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="K74" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
-        <v>40299</v>
+        <v>39661</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="K75" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L75"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44044</v>
+      </c>
+      <c r="E76" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K76" t="s">
+        <v>306</v>
+      </c>
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="1">
+        <v>40027</v>
+      </c>
+      <c r="E77" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" t="s">
+        <v>228</v>
+      </c>
+      <c r="G77" t="s">
+        <v>263</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I77" t="s">
         <v>19</v>
       </c>
-      <c r="C76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="1">
-        <v>40664</v>
-      </c>
-      <c r="E76" t="s">
-        <v>225</v>
-      </c>
-      <c r="F76" t="s">
-        <v>226</v>
-      </c>
-      <c r="G76" t="s">
-        <v>224</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I76" t="s">
-        <v>53</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K76" t="s">
-        <v>364</v>
-      </c>
-      <c r="L76"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D77" s="1"/>
-      <c r="H77" s="4"/>
+      <c r="J77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K77" t="s">
+        <v>70</v>
+      </c>
       <c r="L77"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" t="s">
-        <v>373</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="1">
-        <v>42705</v>
-      </c>
-      <c r="E78" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" t="s">
-        <v>80</v>
-      </c>
-      <c r="H78" s="5"/>
-      <c r="I78" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K78" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D79" s="1">
-        <v>42186</v>
+        <v>41548</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F79" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="K79" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L79"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43009</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" t="s">
+        <v>242</v>
+      </c>
+      <c r="G80" t="s">
+        <v>177</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I80" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="1">
-        <v>43647</v>
-      </c>
-      <c r="E80" t="s">
-        <v>301</v>
-      </c>
-      <c r="F80" t="s">
-        <v>302</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="J80" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I80" t="s">
-        <v>53</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="K80" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="B81" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D81" s="1">
-        <v>38139</v>
+        <v>37500</v>
       </c>
       <c r="E81" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="I81" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="K81" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D82" s="1">
-        <v>37165</v>
+        <v>36526</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="G82" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>288</v>
+        <v>158</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="K82" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D83" s="1">
-        <v>37500</v>
+        <v>36861</v>
       </c>
       <c r="E83" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="G83" t="s">
-        <v>283</v>
-      </c>
-      <c r="H83" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="K83" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D84" s="1">
-        <v>42370</v>
+        <v>41730</v>
       </c>
       <c r="E84" t="s">
-        <v>226</v>
-      </c>
-      <c r="F84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="I84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="K84" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>378</v>
-      </c>
-      <c r="B85" t="s">
-        <v>379</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="1">
-        <v>38687</v>
-      </c>
-      <c r="E85" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85" t="s">
-        <v>141</v>
-      </c>
-      <c r="G85" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I85" t="s">
-        <v>53</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K85" t="s">
-        <v>82</v>
-      </c>
       <c r="L85"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="1">
-        <v>43282</v>
+        <v>42644</v>
       </c>
       <c r="E86" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="G86" t="s">
-        <v>143</v>
+        <v>276</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="K86" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L86"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="1">
-        <v>43862</v>
+        <v>43221</v>
       </c>
       <c r="E87" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="G87" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="I87" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="K87" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="L87"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1">
-        <v>41426</v>
+        <v>40787</v>
       </c>
       <c r="E88" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="G88" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="K88" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L88"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>38838</v>
+        <v>38200</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>115</v>
+        <v>282</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="K89" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D90" s="1">
-        <v>36951</v>
+        <v>36312</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="G90" t="s">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>282</v>
+        <v>416</v>
       </c>
       <c r="I90" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="K90" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1">
-        <v>38534</v>
+        <v>37895</v>
       </c>
       <c r="E91" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="F91" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G91" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="K91" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="1">
-        <v>38534</v>
+        <v>44105</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>44</v>
+        <v>149</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="I92" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="K92" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D93" s="1">
-        <v>42917</v>
+        <v>42278</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="F93" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="G93" t="s">
-        <v>27</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>390</v>
+        <v>113</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="I93" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="K93" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1">
-        <v>41852</v>
+        <v>41214</v>
       </c>
       <c r="E94" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="F94" t="s">
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>255</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="I94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="K94" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1">
-        <v>40299</v>
+        <v>39661</v>
       </c>
       <c r="E95" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="K95" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>378</v>
-      </c>
-      <c r="B96" t="s">
-        <v>379</v>
-      </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="1">
-        <v>39295</v>
-      </c>
-      <c r="E96" t="s">
-        <v>154</v>
-      </c>
-      <c r="F96" t="s">
-        <v>155</v>
-      </c>
-      <c r="G96" t="s">
-        <v>153</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I96" t="s">
-        <v>20</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K96" t="s">
-        <v>82</v>
-      </c>
       <c r="L96"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>378</v>
-      </c>
-      <c r="B97" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="1">
-        <v>39203</v>
-      </c>
-      <c r="E97" t="s">
-        <v>110</v>
-      </c>
-      <c r="F97" t="s">
-        <v>111</v>
-      </c>
-      <c r="G97" t="s">
-        <v>109</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I97" t="s">
-        <v>20</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K97" t="s">
-        <v>82</v>
-      </c>
       <c r="L97"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D98" s="1"/>
-      <c r="H98" s="4"/>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>378</v>
-      </c>
-      <c r="B99" t="s">
-        <v>379</v>
-      </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="1">
-        <v>44317</v>
-      </c>
-      <c r="E99" t="s">
-        <v>110</v>
-      </c>
-      <c r="F99" t="s">
-        <v>207</v>
-      </c>
-      <c r="G99" t="s">
-        <v>206</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I99" t="s">
-        <v>20</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K99" t="s">
-        <v>361</v>
-      </c>
-    </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>378</v>
-      </c>
-      <c r="B100" t="s">
-        <v>379</v>
-      </c>
-      <c r="C100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="1">
-        <v>41548</v>
-      </c>
-      <c r="E100" t="s">
-        <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>137</v>
-      </c>
-      <c r="G100" t="s">
-        <v>196</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="I100" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="K100" t="s">
-        <v>87</v>
-      </c>
       <c r="L100"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="1">
-        <v>44378</v>
-      </c>
-      <c r="E101" t="s">
-        <v>222</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" t="s">
-        <v>221</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I101" t="s">
-        <v>20</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="K101" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="B102" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1">
-        <v>43709</v>
+        <v>43070</v>
       </c>
       <c r="E102" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="F102" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>256</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>381</v>
+        <v>243</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="I102" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="K102" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
+        <v>321</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" s="1">
+        <v>43952</v>
+      </c>
+      <c r="E103" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>153</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I103" t="s">
         <v>19</v>
       </c>
-      <c r="C103" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E103" t="s">
-        <v>219</v>
-      </c>
-      <c r="F103" t="s">
-        <v>110</v>
-      </c>
-      <c r="G103" t="s">
-        <v>218</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I103" t="s">
-        <v>20</v>
-      </c>
       <c r="J103" s="3" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="K103" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="1">
+        <v>41091</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" t="s">
+        <v>259</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I104" t="s">
         <v>19</v>
       </c>
-      <c r="C104" t="s">
+      <c r="J104" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K104" t="s">
+        <v>313</v>
+      </c>
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44014</v>
+      </c>
+      <c r="E105" t="s">
+        <v>215</v>
+      </c>
+      <c r="F105" t="s">
+        <v>114</v>
+      </c>
+      <c r="G105" t="s">
+        <v>263</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I105" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="1">
+        <v>41093</v>
+      </c>
+      <c r="E106" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" t="s">
+        <v>200</v>
+      </c>
+      <c r="G106" t="s">
+        <v>271</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K106" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="1">
+        <v>39142</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" t="s">
+        <v>289</v>
+      </c>
+      <c r="G127" t="s">
+        <v>203</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K127" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>320</v>
+      </c>
+      <c r="B128" t="s">
+        <v>321</v>
+      </c>
+      <c r="C128" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="1">
-        <v>41730</v>
-      </c>
-      <c r="E104" t="s">
-        <v>266</v>
-      </c>
-      <c r="F104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I104" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="K104" t="s">
-        <v>371</v>
-      </c>
-      <c r="L104"/>
+      <c r="D128" s="1">
+        <v>36739</v>
+      </c>
+      <c r="E128" t="s">
+        <v>143</v>
+      </c>
+      <c r="F128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G128" t="s">
+        <v>159</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I128" t="s">
+        <v>46</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>316</v>
+      </c>
+      <c r="B129" t="s">
+        <v>317</v>
+      </c>
+      <c r="C129" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="1">
+        <v>42125</v>
+      </c>
+      <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
+        <v>277</v>
+      </c>
+      <c r="G129" t="s">
+        <v>168</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K129" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="1">
+        <v>39052</v>
+      </c>
+      <c r="E130" t="s">
+        <v>107</v>
+      </c>
+      <c r="F130" t="s">
+        <v>103</v>
+      </c>
+      <c r="G130" t="s">
+        <v>279</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="I130" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" t="s">
+        <v>317</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E131" t="s">
+        <v>222</v>
+      </c>
+      <c r="F131" t="s">
+        <v>280</v>
+      </c>
+      <c r="G131" t="s">
+        <v>282</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K131" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E132" t="s">
+        <v>238</v>
+      </c>
+      <c r="F132" t="s">
+        <v>283</v>
+      </c>
+      <c r="G132" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I132" t="s">
+        <v>46</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K132" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="1">
+        <v>41456</v>
+      </c>
+      <c r="E133" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
+        <v>21</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K133" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>318</v>
+      </c>
+      <c r="B134" t="s">
+        <v>319</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1">
+        <v>42248</v>
+      </c>
+      <c r="E134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F134" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s">
+        <v>149</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I134" t="s">
+        <v>46</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K134" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>320</v>
+      </c>
+      <c r="B135" t="s">
+        <v>321</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1">
+        <v>39995</v>
+      </c>
+      <c r="E135" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" t="s">
+        <v>150</v>
+      </c>
+      <c r="G135" t="s">
+        <v>113</v>
+      </c>
+      <c r="I135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K135" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>316</v>
+      </c>
+      <c r="B136" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="1">
+        <v>39356</v>
+      </c>
+      <c r="E136" t="s">
+        <v>211</v>
+      </c>
+      <c r="F136" t="s">
+        <v>114</v>
+      </c>
+      <c r="G136" t="s">
+        <v>199</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I136" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K136" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>